--- a/PRESETS.xlsx
+++ b/PRESETS.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Each preset category has 5 levels:</t>
+          <t>Each preset category has 5 levels with per-zone values:</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 2 presets to the left (lower values)</t>
+          <t xml:space="preserve">  • 2 presets to the left (lower/slower values)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 2 presets to the right (higher values)</t>
+          <t xml:space="preserve">  • 2 presets to the right (higher/faster values)</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Frequency Presets:</t>
+          <t>Frequency Presets (per-zone tick intervals):</t>
         </is>
       </c>
     </row>
@@ -550,54 +550,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  (Tick interval: 2.0s → 1.0s → 0.5s → 0.25s → 0.1s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+          <t xml:space="preserve">  (Each zone has unique tick intervals, e.g., Throat: 2.0s → 0.1s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Slider range: 0.1s to 5.0s in 0.1s increments</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Chance Presets:</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">  Off → Rare → Default → Frequent → Always</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Damage Type Multipliers:</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Pierce: 1.0x (default)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Slash: 1.0x (default)</t>
+          <t xml:space="preserve">  Pierce: 1.0x (default)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Blunt: 0.5x (default - blunt causes less bleeding)</t>
+          <t xml:space="preserve">  Slash: 1.0x (default)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Blunt: 0.5x (default - blunt causes less bleeding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">  Set to 0.0x to disable bleed from that damage type</t>
         </is>
@@ -1180,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1231,7 +1238,7 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>Tick Interval</t>
+          <t>Throat</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
@@ -1251,10 +1258,202 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
+          <t>0.3s</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>0.1s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>2.5s</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>1.2s</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>0.6s</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>0.3s</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>0.1s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Neck</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>2.0s</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>1.0s</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>0.5s</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
           <t>0.25s</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>0.1s</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Torso</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>3.0s</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>1.5s</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>0.8s</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>0.4s</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>0.2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Arm</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>3.5s</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>1.8s</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>1.0s</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>0.5s</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>0.2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Leg</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>3.0s</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>1.5s</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>0.8s</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>0.4s</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>0.2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Dismemberment</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>1.5s</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>0.8s</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>0.4s</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>0.2s</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>0.1s</t>
         </is>
